--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_11_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_11_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2599258.962525696</v>
+        <v>2596396.493425571</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>50.48273419507654</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.21022140383137</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
+        <v>22.37892513348059</v>
+      </c>
+      <c r="U2" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="U2" t="n">
-        <v>25.15787082233987</v>
-      </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,70 +735,70 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>44.4651922790234</v>
       </c>
-      <c r="E3" t="n">
+      <c r="S3" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="F3" t="n">
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
         <v>50.48273419507654</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>50.48273419507654</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -823,58 +823,58 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>8.386866521745233</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>8.386866521745219</v>
+      </c>
+      <c r="R4" t="n">
         <v>50.48273419507654</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>50.48273419507654</v>
       </c>
       <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>50.48273419507654</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -902,10 +902,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="F5" t="n">
-        <v>53.79631798062264</v>
+        <v>32.22184835001295</v>
       </c>
       <c r="G5" t="n">
         <v>15.16194852731947</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>32.22184835001295</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,11 +941,11 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
         <v>53.79631798062264</v>
       </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="X5" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,61 +975,61 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
+        <v>47.38379687733242</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
         <v>53.79631798062264</v>
       </c>
-      <c r="D6" t="n">
-        <v>47.38379687733242</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="U6" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.74224000600998</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>53.79631798062264</v>
       </c>
       <c r="X7" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.79631798062264</v>
+        <v>13.74224000600998</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>170.1331892653139</v>
+        <v>170.133189265314</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>90.91583803611266</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>55.70610478157366</v>
+        <v>55.70610478157356</v>
       </c>
       <c r="S8" t="n">
-        <v>170.1331892653139</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>170.133189265314</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>90.91583803611222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1215,13 +1215,13 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1257,28 +1257,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>50.36049712271175</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>170.133189265314</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>170.133189265314</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>99.49281598217686</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>39.96033322209275</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>170.1331892653139</v>
+        <v>170.133189265314</v>
       </c>
     </row>
     <row r="10">
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.31856917756</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.8568598311603</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>170.133189265314</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>149.8533131048886</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>170.133189265314</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>170.133189265314</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.4095827705509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1604,19 +1604,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1771,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>14.75529838241474</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>155.2162996298073</v>
       </c>
     </row>
     <row r="17">
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428257</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>78.9105100867805</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2719,16 +2719,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>20.88994825141581</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>80.08971311158706</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>148.1185786361432</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>153.2646806878225</v>
       </c>
     </row>
     <row r="32">
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.6164309267676</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,13 +3196,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>173.8476477102227</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>39.52129633183119</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>156.2292142534452</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>103.1686991936193</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>22.04658882052573</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="42">
@@ -3898,10 +3898,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>28.75188085812011</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4040,7 +4040,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784685</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4132,22 +4132,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>74.5336244444547</v>
+        <v>26.34797948867967</v>
       </c>
       <c r="C2" t="n">
-        <v>74.5336244444547</v>
+        <v>26.34797948867967</v>
       </c>
       <c r="D2" t="n">
-        <v>74.5336244444547</v>
+        <v>26.34797948867967</v>
       </c>
       <c r="E2" t="n">
-        <v>74.5336244444547</v>
+        <v>26.34797948867967</v>
       </c>
       <c r="F2" t="n">
-        <v>23.54096364134708</v>
+        <v>19.4024787394762</v>
       </c>
       <c r="G2" t="n">
-        <v>8.177103637477007</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="H2" t="n">
-        <v>8.177103637477007</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="I2" t="n">
-        <v>8.177103637477007</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="J2" t="n">
         <v>4.038618735606123</v>
@@ -4337,7 +4337,7 @@
         <v>54.01652558873189</v>
       </c>
       <c r="M2" t="n">
-        <v>103.9944324418577</v>
+        <v>54.01652558873189</v>
       </c>
       <c r="N2" t="n">
         <v>103.9944324418577</v>
@@ -4358,22 +4358,22 @@
         <v>150.9382759771985</v>
       </c>
       <c r="T2" t="n">
-        <v>99.94561517409093</v>
+        <v>128.3333010948949</v>
       </c>
       <c r="U2" t="n">
-        <v>74.5336244444547</v>
+        <v>77.3406402917873</v>
       </c>
       <c r="V2" t="n">
-        <v>74.5336244444547</v>
+        <v>26.34797948867967</v>
       </c>
       <c r="W2" t="n">
-        <v>74.5336244444547</v>
+        <v>26.34797948867967</v>
       </c>
       <c r="X2" t="n">
-        <v>74.5336244444547</v>
+        <v>26.34797948867967</v>
       </c>
       <c r="Y2" t="n">
-        <v>74.5336244444547</v>
+        <v>26.34797948867967</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>201.9309367803062</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="C3" t="n">
-        <v>201.9309367803062</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="D3" t="n">
-        <v>157.016601144929</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="E3" t="n">
-        <v>106.0239403418214</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="F3" t="n">
-        <v>55.03127953871374</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="G3" t="n">
-        <v>55.03127953871374</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="H3" t="n">
-        <v>55.03127953871374</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="I3" t="n">
         <v>4.038618735606123</v>
@@ -4410,19 +4410,19 @@
         <v>7.929436376304878</v>
       </c>
       <c r="K3" t="n">
-        <v>57.90734322943065</v>
+        <v>51.99721622092883</v>
       </c>
       <c r="L3" t="n">
-        <v>107.8852500825564</v>
+        <v>51.99721622092883</v>
       </c>
       <c r="M3" t="n">
-        <v>107.8852500825564</v>
+        <v>101.9751230740546</v>
       </c>
       <c r="N3" t="n">
-        <v>107.8852500825564</v>
+        <v>101.9751230740546</v>
       </c>
       <c r="O3" t="n">
-        <v>107.8852500825564</v>
+        <v>101.9751230740546</v>
       </c>
       <c r="P3" t="n">
         <v>151.9530299271804</v>
@@ -4431,28 +4431,28 @@
         <v>201.9309367803062</v>
       </c>
       <c r="R3" t="n">
-        <v>201.9309367803062</v>
+        <v>157.016601144929</v>
       </c>
       <c r="S3" t="n">
-        <v>201.9309367803062</v>
+        <v>106.0239403418214</v>
       </c>
       <c r="T3" t="n">
-        <v>201.9309367803062</v>
+        <v>106.0239403418214</v>
       </c>
       <c r="U3" t="n">
-        <v>201.9309367803062</v>
+        <v>106.0239403418214</v>
       </c>
       <c r="V3" t="n">
-        <v>201.9309367803062</v>
+        <v>106.0239403418214</v>
       </c>
       <c r="W3" t="n">
-        <v>201.9309367803062</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="X3" t="n">
-        <v>201.9309367803062</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="Y3" t="n">
-        <v>201.9309367803062</v>
+        <v>55.03127953871374</v>
       </c>
     </row>
     <row r="4">
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>63.50286188391095</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="C4" t="n">
-        <v>63.50286188391095</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="D4" t="n">
-        <v>63.50286188391095</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="E4" t="n">
-        <v>55.03127953871374</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="F4" t="n">
         <v>4.038618735606123</v>
@@ -4507,31 +4507,31 @@
         <v>165.4881834901262</v>
       </c>
       <c r="Q4" t="n">
-        <v>165.4881834901262</v>
+        <v>157.016601144929</v>
       </c>
       <c r="R4" t="n">
-        <v>165.4881834901262</v>
+        <v>106.0239403418214</v>
       </c>
       <c r="S4" t="n">
-        <v>114.4955226870186</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="T4" t="n">
-        <v>63.50286188391095</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="U4" t="n">
-        <v>63.50286188391095</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="V4" t="n">
-        <v>63.50286188391095</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="W4" t="n">
-        <v>63.50286188391095</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="X4" t="n">
-        <v>63.50286188391095</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="Y4" t="n">
-        <v>63.50286188391095</v>
+        <v>4.038618735606123</v>
       </c>
     </row>
     <row r="5">
@@ -4550,16 +4550,16 @@
         <v>106.5058416586064</v>
       </c>
       <c r="E5" t="n">
-        <v>106.5058416586064</v>
+        <v>52.16612652666438</v>
       </c>
       <c r="F5" t="n">
-        <v>52.16612652666438</v>
+        <v>19.61880496099473</v>
       </c>
       <c r="G5" t="n">
-        <v>36.85102700411946</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="H5" t="n">
-        <v>36.85102700411946</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="I5" t="n">
         <v>4.303705438449811</v>
@@ -4568,19 +4568,19 @@
         <v>4.303705438449811</v>
       </c>
       <c r="K5" t="n">
+        <v>4.303705438449811</v>
+      </c>
+      <c r="L5" t="n">
         <v>50.24940920255072</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>103.5077640033671</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>156.7661188041835</v>
       </c>
-      <c r="N5" t="n">
-        <v>210.024473605</v>
-      </c>
       <c r="O5" t="n">
-        <v>210.024473605</v>
+        <v>156.7661188041835</v>
       </c>
       <c r="P5" t="n">
         <v>210.024473605</v>
@@ -4589,7 +4589,7 @@
         <v>215.1852719224906</v>
       </c>
       <c r="R5" t="n">
-        <v>160.8455567905485</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="S5" t="n">
         <v>160.8455567905485</v>
@@ -4604,7 +4604,7 @@
         <v>160.8455567905485</v>
       </c>
       <c r="W5" t="n">
-        <v>160.8455567905485</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="X5" t="n">
         <v>106.5058416586064</v>
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>106.5058416586064</v>
+        <v>52.16612652666438</v>
       </c>
       <c r="C6" t="n">
-        <v>52.16612652666438</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="D6" t="n">
         <v>4.303705438449811</v>
@@ -4650,46 +4650,46 @@
         <v>63.86868055626314</v>
       </c>
       <c r="L6" t="n">
-        <v>108.6685623208577</v>
+        <v>63.86868055626314</v>
       </c>
       <c r="M6" t="n">
-        <v>108.6685623208577</v>
+        <v>117.1270353570795</v>
       </c>
       <c r="N6" t="n">
-        <v>108.6685623208577</v>
+        <v>161.9269171216741</v>
       </c>
       <c r="O6" t="n">
-        <v>108.6685623208577</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="P6" t="n">
-        <v>161.9269171216741</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="Q6" t="n">
         <v>215.1852719224906</v>
       </c>
       <c r="R6" t="n">
-        <v>215.1852719224906</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="S6" t="n">
-        <v>215.1852719224906</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="T6" t="n">
-        <v>215.1852719224906</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="U6" t="n">
-        <v>160.8455567905485</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="V6" t="n">
-        <v>160.8455567905485</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="W6" t="n">
-        <v>106.5058416586064</v>
+        <v>52.16612652666438</v>
       </c>
       <c r="X6" t="n">
-        <v>106.5058416586064</v>
+        <v>52.16612652666438</v>
       </c>
       <c r="Y6" t="n">
-        <v>106.5058416586064</v>
+        <v>52.16612652666438</v>
       </c>
     </row>
     <row r="7">
@@ -4753,22 +4753,22 @@
         <v>181.2039013453972</v>
       </c>
       <c r="T7" t="n">
-        <v>181.2039013453972</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="U7" t="n">
-        <v>181.2039013453972</v>
+        <v>72.52447108151307</v>
       </c>
       <c r="V7" t="n">
-        <v>181.2039013453972</v>
+        <v>72.52447108151307</v>
       </c>
       <c r="W7" t="n">
-        <v>126.8641862134551</v>
+        <v>18.18475594957101</v>
       </c>
       <c r="X7" t="n">
-        <v>72.52447108151307</v>
+        <v>18.18475594957101</v>
       </c>
       <c r="Y7" t="n">
-        <v>18.18475594957101</v>
+        <v>4.303705438449811</v>
       </c>
     </row>
     <row r="8">
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>188.7263718609387</v>
+        <v>280.5605516953959</v>
       </c>
       <c r="C8" t="n">
         <v>188.7263718609387</v>
@@ -4790,64 +4790,64 @@
         <v>188.7263718609387</v>
       </c>
       <c r="F8" t="n">
-        <v>181.7808711117353</v>
+        <v>181.7808711117352</v>
       </c>
       <c r="G8" t="n">
-        <v>167.8377252917979</v>
+        <v>167.8377252917978</v>
       </c>
       <c r="H8" t="n">
-        <v>167.8377252917979</v>
+        <v>167.8377252917978</v>
       </c>
       <c r="I8" t="n">
-        <v>13.61065514122511</v>
+        <v>13.61065514122512</v>
       </c>
       <c r="J8" t="n">
-        <v>13.61065514122511</v>
+        <v>13.61065514122512</v>
       </c>
       <c r="K8" t="n">
-        <v>13.61065514122511</v>
+        <v>182.042512513886</v>
       </c>
       <c r="L8" t="n">
-        <v>14.39342963784213</v>
+        <v>182.8252870105033</v>
       </c>
       <c r="M8" t="n">
-        <v>46.93385453392859</v>
+        <v>343.6690423159344</v>
       </c>
       <c r="N8" t="n">
-        <v>215.3657119065894</v>
+        <v>512.1008996885953</v>
       </c>
       <c r="O8" t="n">
-        <v>383.7975692792501</v>
+        <v>680.5327570612561</v>
       </c>
       <c r="P8" t="n">
-        <v>530.1646890928158</v>
+        <v>680.5327570612561</v>
       </c>
       <c r="Q8" t="n">
-        <v>680.5327570612557</v>
+        <v>680.5327570612561</v>
       </c>
       <c r="R8" t="n">
-        <v>624.2639643525954</v>
+        <v>624.263964352596</v>
       </c>
       <c r="S8" t="n">
-        <v>452.4122580239955</v>
+        <v>624.263964352596</v>
       </c>
       <c r="T8" t="n">
-        <v>452.4122580239955</v>
+        <v>624.263964352596</v>
       </c>
       <c r="U8" t="n">
-        <v>452.4122580239955</v>
+        <v>624.263964352596</v>
       </c>
       <c r="V8" t="n">
-        <v>452.4122580239955</v>
+        <v>624.263964352596</v>
       </c>
       <c r="W8" t="n">
-        <v>452.4122580239955</v>
+        <v>452.4122580239959</v>
       </c>
       <c r="X8" t="n">
-        <v>452.4122580239955</v>
+        <v>452.4122580239959</v>
       </c>
       <c r="Y8" t="n">
-        <v>360.5780781895387</v>
+        <v>452.4122580239959</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>468.3170777810469</v>
+        <v>13.61065514122512</v>
       </c>
       <c r="C9" t="n">
-        <v>468.3170777810469</v>
+        <v>13.61065514122512</v>
       </c>
       <c r="D9" t="n">
-        <v>319.3826681197957</v>
+        <v>13.61065514122512</v>
       </c>
       <c r="E9" t="n">
-        <v>160.1452131143402</v>
+        <v>13.61065514122512</v>
       </c>
       <c r="F9" t="n">
-        <v>13.61065514122511</v>
+        <v>13.61065514122512</v>
       </c>
       <c r="G9" t="n">
-        <v>13.61065514122511</v>
+        <v>13.61065514122512</v>
       </c>
       <c r="H9" t="n">
-        <v>13.61065514122511</v>
+        <v>13.61065514122512</v>
       </c>
       <c r="I9" t="n">
-        <v>13.61065514122511</v>
+        <v>13.61065514122512</v>
       </c>
       <c r="J9" t="n">
-        <v>13.61065514122511</v>
+        <v>13.61065514122512</v>
       </c>
       <c r="K9" t="n">
-        <v>182.0425125138859</v>
+        <v>13.61065514122512</v>
       </c>
       <c r="L9" t="n">
-        <v>350.4743698865467</v>
+        <v>182.042512513886</v>
       </c>
       <c r="M9" t="n">
-        <v>410.9501644795708</v>
+        <v>267.1839884756284</v>
       </c>
       <c r="N9" t="n">
-        <v>487.4352183198766</v>
+        <v>343.6690423159344</v>
       </c>
       <c r="O9" t="n">
-        <v>535.1843048169137</v>
+        <v>512.1008996885953</v>
       </c>
       <c r="P9" t="n">
-        <v>680.5327570612557</v>
+        <v>680.5327570612561</v>
       </c>
       <c r="Q9" t="n">
-        <v>680.5327570612557</v>
+        <v>680.5327570612561</v>
       </c>
       <c r="R9" t="n">
-        <v>680.5327570612557</v>
+        <v>629.663568048416</v>
       </c>
       <c r="S9" t="n">
-        <v>680.5327570612557</v>
+        <v>629.663568048416</v>
       </c>
       <c r="T9" t="n">
-        <v>680.5327570612557</v>
+        <v>457.811861719816</v>
       </c>
       <c r="U9" t="n">
-        <v>680.5327570612557</v>
+        <v>285.9601553912159</v>
       </c>
       <c r="V9" t="n">
-        <v>680.5327570612557</v>
+        <v>185.4623614698252</v>
       </c>
       <c r="W9" t="n">
-        <v>680.5327570612557</v>
+        <v>185.4623614698252</v>
       </c>
       <c r="X9" t="n">
-        <v>640.1687841096468</v>
+        <v>185.4623614698252</v>
       </c>
       <c r="Y9" t="n">
-        <v>468.3170777810469</v>
+        <v>13.61065514122512</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>498.4454413019514</v>
+        <v>13.61065514122512</v>
       </c>
       <c r="C10" t="n">
-        <v>329.5092583740445</v>
+        <v>13.61065514122512</v>
       </c>
       <c r="D10" t="n">
-        <v>329.5092583740445</v>
+        <v>13.61065514122512</v>
       </c>
       <c r="E10" t="n">
-        <v>329.5092583740445</v>
+        <v>13.61065514122512</v>
       </c>
       <c r="F10" t="n">
-        <v>182.6193108761342</v>
+        <v>13.61065514122512</v>
       </c>
       <c r="G10" t="n">
-        <v>13.61065514122511</v>
+        <v>13.61065514122512</v>
       </c>
       <c r="H10" t="n">
-        <v>13.61065514122511</v>
+        <v>13.61065514122512</v>
       </c>
       <c r="I10" t="n">
-        <v>13.61065514122511</v>
+        <v>13.61065514122512</v>
       </c>
       <c r="J10" t="n">
-        <v>13.61065514122511</v>
+        <v>13.61065514122512</v>
       </c>
       <c r="K10" t="n">
         <v>68.90447724057992</v>
       </c>
       <c r="L10" t="n">
-        <v>195.1879671340621</v>
+        <v>195.1879671340622</v>
       </c>
       <c r="M10" t="n">
-        <v>338.7253240694247</v>
+        <v>338.7253240694249</v>
       </c>
       <c r="N10" t="n">
-        <v>484.284299900485</v>
+        <v>484.2842999004853</v>
       </c>
       <c r="O10" t="n">
-        <v>602.7152779689137</v>
+        <v>602.7152779689141</v>
       </c>
       <c r="P10" t="n">
-        <v>680.5327570612557</v>
+        <v>680.5327570612561</v>
       </c>
       <c r="Q10" t="n">
-        <v>650.3743127873564</v>
+        <v>680.5327570612561</v>
       </c>
       <c r="R10" t="n">
-        <v>650.3743127873564</v>
+        <v>680.5327570612561</v>
       </c>
       <c r="S10" t="n">
-        <v>650.3743127873564</v>
+        <v>680.5327570612561</v>
       </c>
       <c r="T10" t="n">
-        <v>650.3743127873564</v>
+        <v>508.6810507326561</v>
       </c>
       <c r="U10" t="n">
-        <v>650.3743127873564</v>
+        <v>357.3140677984252</v>
       </c>
       <c r="V10" t="n">
-        <v>650.3743127873564</v>
+        <v>185.4623614698252</v>
       </c>
       <c r="W10" t="n">
-        <v>650.3743127873564</v>
+        <v>13.61065514122512</v>
       </c>
       <c r="X10" t="n">
-        <v>650.3743127873564</v>
+        <v>13.61065514122512</v>
       </c>
       <c r="Y10" t="n">
-        <v>498.4454413019514</v>
+        <v>13.61065514122512</v>
       </c>
     </row>
     <row r="11">
@@ -5027,10 +5027,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,37 +5258,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>718.5507239167111</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C16" t="n">
-        <v>549.6145409888043</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D16" t="n">
-        <v>549.6145409888043</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2182.158203687148</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1893.082977031346</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1638.398488825459</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1348.981318788498</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1120.991767890481</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>900.1991887469509</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121652</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121652</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121652</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270452</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5692,31 +5692,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,16 +5732,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5750,10 +5750,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6224,10 +6224,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6303,25 +6303,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6427,7 +6427,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,16 +6537,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
         <v>680.0291294438176</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6646,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y31" t="n">
-        <v>1166.195182806534</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6777,19 +6777,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>849.3843576263199</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C34" t="n">
-        <v>680.448174698413</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D34" t="n">
-        <v>530.3315352860773</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E34" t="n">
-        <v>382.4184417036842</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>983.3403484614387</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6941,7 +6941,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6962,25 +6962,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>576.8388927589092</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>407.9027098310023</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D37" t="n">
-        <v>407.9027098310023</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7138,7 +7138,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>758.4873575891489</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7199,7 +7199,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,10 +7245,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7260,13 +7260,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797186</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7372,10 +7372,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7436,25 +7436,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7546,25 +7546,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7637,58 +7637,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D46" t="n">
-        <v>261.0127623330919</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>231.7628415621006</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7985,10 +7985,10 @@
         <v>221.1666787354324</v>
       </c>
       <c r="M2" t="n">
-        <v>264.5839477933977</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N2" t="n">
-        <v>212.9051825663978</v>
+        <v>263.3879167614743</v>
       </c>
       <c r="O2" t="n">
         <v>262.9533152362218</v>
@@ -8058,13 +8058,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>180.3309306186853</v>
+        <v>174.3611053575724</v>
       </c>
       <c r="L3" t="n">
-        <v>178.2892129380686</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M3" t="n">
-        <v>129.5917403577182</v>
+        <v>180.0744745527947</v>
       </c>
       <c r="N3" t="n">
         <v>118.4674613291454</v>
@@ -8073,7 +8073,7 @@
         <v>130.8188201934042</v>
       </c>
       <c r="P3" t="n">
-        <v>169.0348950707709</v>
+        <v>175.0047203318838</v>
       </c>
       <c r="Q3" t="n">
         <v>184.1458149818875</v>
@@ -8216,10 +8216,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>248.5907656180547</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L5" t="n">
-        <v>267.3451747559029</v>
+        <v>259.9586585572004</v>
       </c>
       <c r="M5" t="n">
         <v>259.4212368511231</v>
@@ -8231,7 +8231,7 @@
         <v>206.3768508508745</v>
       </c>
       <c r="P5" t="n">
-        <v>210.9873633211545</v>
+        <v>264.7836813017771</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8298,22 +8298,22 @@
         <v>179.4738158616228</v>
       </c>
       <c r="L6" t="n">
-        <v>167.4508656791093</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M6" t="n">
-        <v>123.047446830095</v>
+        <v>176.8437648107177</v>
       </c>
       <c r="N6" t="n">
-        <v>111.7499598249992</v>
+        <v>157.002365647822</v>
       </c>
       <c r="O6" t="n">
-        <v>124.673618687554</v>
+        <v>178.4699366681766</v>
       </c>
       <c r="P6" t="n">
-        <v>173.3862381384502</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q6" t="n">
-        <v>184.1624432744798</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>53.81818816105533</v>
+        <v>53.81818816105519</v>
       </c>
       <c r="K8" t="n">
-        <v>29.40848459605346</v>
+        <v>199.5416738613673</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>129.5993236458024</v>
       </c>
       <c r="N8" t="n">
-        <v>132.0718040433898</v>
+        <v>132.0718040433896</v>
       </c>
       <c r="O8" t="n">
-        <v>147.6628633500773</v>
+        <v>147.6628633500771</v>
       </c>
       <c r="P8" t="n">
-        <v>163.5171680870936</v>
+        <v>15.67159251783505</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>60.4280533180461</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>51.06167039641022</v>
+        <v>51.06167039641015</v>
       </c>
       <c r="K9" t="n">
-        <v>178.4614495570661</v>
+        <v>8.328260291752116</v>
       </c>
       <c r="L9" t="n">
-        <v>134.5411173874635</v>
+        <v>134.5411173874634</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>24.9148296653718</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>121.9017887632562</v>
       </c>
       <c r="P9" t="n">
-        <v>127.6350171110321</v>
+        <v>150.9515879477178</v>
       </c>
       <c r="Q9" t="n">
-        <v>37.60103822001975</v>
+        <v>37.60103822001965</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8708,10 +8708,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R11" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
         <v>5.684341886080801e-13</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>202.6501519448735</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>63.36835372228748</v>
       </c>
     </row>
     <row r="17">
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194132</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>124.5310997715154</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.71340154579411</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24886,7 +24886,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>65.31997266427226</v>
       </c>
     </row>
     <row r="32">
@@ -25072,10 +25072,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>47.21554925516972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,13 +25084,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>44.73700564187206</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>62.35543909864958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25442,7 +25442,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>43.26526345294987</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>203.6630665685114</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,10 +25786,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26020,22 +26020,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>28.95742156328143</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>773498.6533206414</v>
+        <v>773498.6533206413</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>773498.6533206415</v>
+        <v>773498.6533206413</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>773498.6533206415</v>
+        <v>773498.6533206413</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>773498.6533206415</v>
+        <v>773498.6533206414</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>773498.6533206415</v>
+        <v>773498.6533206413</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>773498.6533206413</v>
+        <v>773498.6533206415</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>773498.6533206413</v>
+        <v>773498.6533206414</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>773498.6533206413</v>
+        <v>773498.6533206414</v>
       </c>
     </row>
     <row r="15">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.415891427</v>
+        <v>656833.4158914271</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="D2" t="n">
         <v>656833.4158914272</v>
@@ -26323,37 +26323,37 @@
         <v>645717.2797520049</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520045</v>
+        <v>645717.279752005</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="H2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="I2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="K2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="L2" t="n">
         <v>645717.279752005</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645717.2797520052</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645717.2797520052</v>
       </c>
       <c r="M2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="N2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.2797520054</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520051</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>12004.91953871608</v>
       </c>
       <c r="D3" t="n">
-        <v>325486.3975543784</v>
+        <v>325486.3975543787</v>
       </c>
       <c r="E3" t="n">
-        <v>1098807.963756738</v>
+        <v>1098807.963756737</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>13208.50450573661</v>
+        <v>13208.50450573666</v>
       </c>
       <c r="K3" t="n">
         <v>852.8104317184398</v>
       </c>
       <c r="L3" t="n">
-        <v>29443.8150903138</v>
+        <v>29443.81509031378</v>
       </c>
       <c r="M3" t="n">
         <v>249845.7249299115</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.029028291148799e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>306360.6503278904</v>
       </c>
       <c r="E4" t="n">
+        <v>7507.36846171971</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7507.368461719709</v>
+      </c>
+      <c r="G4" t="n">
         <v>7507.368461719676</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
+        <v>7507.368461719672</v>
+      </c>
+      <c r="I4" t="n">
         <v>7507.368461719667</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7507.368461719667</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7507.368461719691</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7507.368461719703</v>
       </c>
       <c r="J4" t="n">
         <v>7507.36846171968</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719678</v>
+        <v>7507.36846171967</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.36846171967</v>
+        <v>7507.36846171968</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719715</v>
+        <v>7507.368461719675</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719656</v>
+        <v>7507.36846171968</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719656</v>
+        <v>7507.368461719716</v>
       </c>
       <c r="P4" t="n">
-        <v>7507.368461719684</v>
+        <v>7507.368461719667</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>37661.87961689879</v>
       </c>
       <c r="D5" t="n">
-        <v>52100.52571241482</v>
+        <v>52100.52571241483</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>188329.9121086822</v>
+        <v>188329.9121086824</v>
       </c>
       <c r="C6" t="n">
-        <v>217887.5224068038</v>
+        <v>217887.522406804</v>
       </c>
       <c r="D6" t="n">
-        <v>-27114.15770325641</v>
+        <v>-27114.15770325671</v>
       </c>
       <c r="E6" t="n">
-        <v>-561720.5822903594</v>
+        <v>-561755.3202157948</v>
       </c>
       <c r="F6" t="n">
-        <v>537087.3814663778</v>
+        <v>537052.6435409426</v>
       </c>
       <c r="G6" t="n">
-        <v>537087.381466378</v>
+        <v>537052.6435409425</v>
       </c>
       <c r="H6" t="n">
-        <v>537087.3814663782</v>
+        <v>537052.6435409422</v>
       </c>
       <c r="I6" t="n">
-        <v>537087.3814663785</v>
+        <v>537052.6435409425</v>
       </c>
       <c r="J6" t="n">
-        <v>523878.8769606415</v>
+        <v>523844.1390352059</v>
       </c>
       <c r="K6" t="n">
-        <v>536234.5710346599</v>
+        <v>536199.833109224</v>
       </c>
       <c r="L6" t="n">
-        <v>507643.5663760646</v>
+        <v>507608.8284506287</v>
       </c>
       <c r="M6" t="n">
-        <v>287241.6565364667</v>
+        <v>287206.9186110311</v>
       </c>
       <c r="N6" t="n">
-        <v>537087.3814663781</v>
+        <v>537052.6435409428</v>
       </c>
       <c r="O6" t="n">
-        <v>537087.3814663786</v>
+        <v>537052.6435409423</v>
       </c>
       <c r="P6" t="n">
-        <v>537087.3814663781</v>
+        <v>537052.6435409427</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>372.8820094075105</v>
+        <v>372.8820094075109</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>53.79631798062264</v>
       </c>
       <c r="D4" t="n">
-        <v>170.1331892653139</v>
+        <v>170.133189265314</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.286285363935998e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>12.007878032336</v>
       </c>
       <c r="D3" t="n">
-        <v>337.8607486883852</v>
+        <v>337.8607486883856</v>
       </c>
       <c r="E3" t="n">
-        <v>995.0934909341632</v>
+        <v>995.0934909341629</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,7 +27015,7 @@
         <v>3.313583785546101</v>
       </c>
       <c r="D4" t="n">
-        <v>116.3368712846913</v>
+        <v>116.3368712846914</v>
       </c>
       <c r="E4" t="n">
         <v>1002.575098834334</v>
@@ -27039,7 +27039,7 @@
         <v>3.313583785546143</v>
       </c>
       <c r="L4" t="n">
-        <v>116.3368712846913</v>
+        <v>116.3368712846914</v>
       </c>
       <c r="M4" t="n">
         <v>1002.575098834334</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27261,7 +27261,7 @@
         <v>3.313583785546101</v>
       </c>
       <c r="L4" t="n">
-        <v>116.3368712846913</v>
+        <v>116.3368712846914</v>
       </c>
       <c r="M4" t="n">
         <v>1002.575098834334</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>356.3933115466349</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27400,7 +27400,7 @@
         <v>206.909162189371</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>206.9118586999128</v>
       </c>
       <c r="T2" t="n">
-        <v>172.208126091823</v>
+        <v>200.3119351534189</v>
       </c>
       <c r="U2" t="n">
-        <v>226.1803807965923</v>
+        <v>200.8555174238556</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>277.2695242750584</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,19 +27455,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>116.0504494547908</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>102.9798732856154</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>107.1623462603244</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>94.58647819830733</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.2940166796957</v>
@@ -27476,7 +27476,7 @@
         <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
-        <v>37.20960569321311</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703757</v>
+        <v>52.61926974801418</v>
       </c>
       <c r="S3" t="n">
-        <v>170.7637213332854</v>
+        <v>120.2809871382089</v>
       </c>
       <c r="T3" t="n">
         <v>199.9652070090748</v>
@@ -27518,7 +27518,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>201.2122489658431</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27543,10 +27543,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>138.047096124824</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>94.9383138278547</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9494798159088</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.6870224659892</v>
+        <v>74.30015594424398</v>
       </c>
       <c r="R4" t="n">
-        <v>175.4274210366964</v>
+        <v>124.9446868416198</v>
       </c>
       <c r="S4" t="n">
         <v>172.8106399958207</v>
       </c>
       <c r="T4" t="n">
-        <v>177.2855390059461</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U4" t="n">
         <v>286.3167657450791</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>201.6549091287515</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27622,10 +27622,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>328.1340520916391</v>
       </c>
       <c r="F5" t="n">
-        <v>353.0797277610888</v>
+        <v>374.6541973916985</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>338.0329468943008</v>
       </c>
       <c r="I5" t="n">
-        <v>172.8262737676328</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>87.22896370465668</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8118405263978</v>
+        <v>152.0155225457752</v>
       </c>
       <c r="T5" t="n">
         <v>222.4795457699687</v>
@@ -27676,10 +27676,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>295.4446507367904</v>
       </c>
       <c r="X5" t="n">
-        <v>315.9347826978464</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27695,10 +27695,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>118.9121810076931</v>
+        <v>125.3247021109833</v>
       </c>
       <c r="D6" t="n">
-        <v>100.0612686873063</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>95.48084390037957</v>
+        <v>41.68452591975692</v>
       </c>
       <c r="S6" t="n">
         <v>170.2839726213331</v>
       </c>
       <c r="T6" t="n">
-        <v>199.8611009721718</v>
+        <v>146.0647829915492</v>
       </c>
       <c r="U6" t="n">
-        <v>172.1401082615712</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>166.0897401759273</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27825,10 +27825,10 @@
         <v>222.9160118599466</v>
       </c>
       <c r="T7" t="n">
-        <v>227.6757534850358</v>
+        <v>173.8794355044132</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3155846423218</v>
+        <v>232.5192666616991</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27837,10 @@
         <v>232.7266803559684</v>
       </c>
       <c r="X7" t="n">
-        <v>171.9133374084145</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>164.7883353714722</v>
+        <v>204.8424133460848</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>212.6006523981667</v>
+        <v>212.6006523981665</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>274.3570537348949</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>4.727890212896654</v>
+        <v>174.8610794782105</v>
       </c>
       <c r="T8" t="n">
         <v>216.5338757101359</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>179.107779452099</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>295.3221006199414</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27935,13 +27935,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>136.5414690675039</v>
@@ -27950,7 +27950,7 @@
         <v>104.4893481542763</v>
       </c>
       <c r="I9" t="n">
-        <v>61.78225762642491</v>
+        <v>61.78225762642488</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,28 +27977,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.36049712271181</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>156.7854795015661</v>
+        <v>156.785479501566</v>
       </c>
       <c r="T9" t="n">
-        <v>196.9319120283546</v>
+        <v>26.79872276304056</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8886157588888</v>
+        <v>55.75542649357482</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>133.3077711672484</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>165.8126519813847</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>35.54950651199044</v>
+        <v>35.54950651199033</v>
       </c>
     </row>
     <row r="10">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,10 +28020,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.31856917756</v>
       </c>
       <c r="H10" t="n">
         <v>156.2488347172667</v>
@@ -28032,7 +28032,7 @@
         <v>135.2292669416838</v>
       </c>
       <c r="J10" t="n">
-        <v>45.81978032712837</v>
+        <v>45.81978032712832</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.85685983116024</v>
       </c>
       <c r="R10" t="n">
         <v>147.0593845160294</v>
@@ -28062,22 +28062,22 @@
         <v>212.2983224298543</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0725641098958</v>
+        <v>54.93937484458172</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2823524375328</v>
+        <v>136.4290393326442</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>82.00445405851397</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>116.389809071277</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>68.17507058154385</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
     </row>
     <row r="42">
@@ -30760,7 +30760,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>5.464171643889758e-13</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.499023153397026</v>
+        <v>1.499023153397028</v>
       </c>
       <c r="H8" t="n">
-        <v>15.3518708697273</v>
+        <v>15.35187086972731</v>
       </c>
       <c r="I8" t="n">
-        <v>57.7910901213389</v>
+        <v>57.79109012133896</v>
       </c>
       <c r="J8" t="n">
-        <v>127.227716365631</v>
+        <v>127.2277163656311</v>
       </c>
       <c r="K8" t="n">
-        <v>190.6813664489271</v>
+        <v>190.6813664489273</v>
       </c>
       <c r="L8" t="n">
-        <v>236.5570962797014</v>
+        <v>236.5570962797017</v>
       </c>
       <c r="M8" t="n">
-        <v>263.2153492839257</v>
+        <v>263.215349283926</v>
       </c>
       <c r="N8" t="n">
-        <v>267.474448818515</v>
+        <v>267.4744488185153</v>
       </c>
       <c r="O8" t="n">
-        <v>252.5685373369234</v>
+        <v>252.5685373369236</v>
       </c>
       <c r="P8" t="n">
-        <v>215.5614032374343</v>
+        <v>215.5614032374345</v>
       </c>
       <c r="Q8" t="n">
-        <v>161.8776365564032</v>
+        <v>161.8776365564034</v>
       </c>
       <c r="R8" t="n">
-        <v>94.16301315957602</v>
+        <v>94.16301315957612</v>
       </c>
       <c r="S8" t="n">
-        <v>34.15899010803476</v>
+        <v>34.1589901080348</v>
       </c>
       <c r="T8" t="n">
-        <v>6.561973853995485</v>
+        <v>6.561973853995492</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1199218522717621</v>
+        <v>0.1199218522717622</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8020480957067208</v>
+        <v>0.8020480957067216</v>
       </c>
       <c r="H9" t="n">
-        <v>7.746096082220173</v>
+        <v>7.746096082220181</v>
       </c>
       <c r="I9" t="n">
-        <v>27.61437522499017</v>
+        <v>27.6143752249902</v>
       </c>
       <c r="J9" t="n">
-        <v>75.77595627025647</v>
+        <v>75.77595627025654</v>
       </c>
       <c r="K9" t="n">
-        <v>129.5131786826068</v>
+        <v>129.5131786826069</v>
       </c>
       <c r="L9" t="n">
-        <v>174.1464516577246</v>
+        <v>174.1464516577248</v>
       </c>
       <c r="M9" t="n">
-        <v>203.2206951270932</v>
+        <v>203.2206951270934</v>
       </c>
       <c r="N9" t="n">
-        <v>208.5993422250563</v>
+        <v>208.5993422250565</v>
       </c>
       <c r="O9" t="n">
-        <v>190.8276449465021</v>
+        <v>190.8276449465023</v>
       </c>
       <c r="P9" t="n">
-        <v>153.1560087319264</v>
+        <v>153.1560087319265</v>
       </c>
       <c r="Q9" t="n">
-        <v>102.3807358660018</v>
+        <v>102.3807358660019</v>
       </c>
       <c r="R9" t="n">
-        <v>49.79733702993133</v>
+        <v>49.79733702993138</v>
       </c>
       <c r="S9" t="n">
-        <v>14.89769160227175</v>
+        <v>14.89769160227177</v>
       </c>
       <c r="T9" t="n">
-        <v>3.232816666467</v>
+        <v>3.232816666467004</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05276632208596849</v>
+        <v>0.05276632208596855</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6724101808987893</v>
+        <v>0.6724101808987901</v>
       </c>
       <c r="H10" t="n">
-        <v>5.978337790172877</v>
+        <v>5.978337790172883</v>
       </c>
       <c r="I10" t="n">
-        <v>20.22120798557451</v>
+        <v>20.22120798557453</v>
       </c>
       <c r="J10" t="n">
-        <v>47.5393997895444</v>
+        <v>47.53939978954445</v>
       </c>
       <c r="K10" t="n">
-        <v>78.1218373807866</v>
+        <v>78.12183738078669</v>
       </c>
       <c r="L10" t="n">
-        <v>99.96905544017093</v>
+        <v>99.96905544017105</v>
       </c>
       <c r="M10" t="n">
-        <v>105.4033522657984</v>
+        <v>105.4033522657985</v>
       </c>
       <c r="N10" t="n">
-        <v>102.8970961369939</v>
+        <v>102.897096136994</v>
       </c>
       <c r="O10" t="n">
-        <v>95.04212266013073</v>
+        <v>95.04212266013084</v>
       </c>
       <c r="P10" t="n">
-        <v>81.32495496979537</v>
+        <v>81.32495496979546</v>
       </c>
       <c r="Q10" t="n">
-        <v>56.30518342053409</v>
+        <v>56.30518342053414</v>
       </c>
       <c r="R10" t="n">
-        <v>30.2340068611401</v>
+        <v>30.23400686114013</v>
       </c>
       <c r="S10" t="n">
-        <v>11.71827560711799</v>
+        <v>11.718275607118</v>
       </c>
       <c r="T10" t="n">
-        <v>2.873025318385736</v>
+        <v>2.873025318385739</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03667691895811583</v>
+        <v>0.03667691895811587</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,34 +31835,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,13 +32075,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>200.3460366764704</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,10 +32312,10 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>146.0225991093089</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,16 +32324,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,28 +32546,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>626.4629682828348</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
@@ -32792,10 +32792,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>504.7812948344583</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32807,10 +32807,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,16 +33023,16 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>318.3985571819322</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33044,7 +33044,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33257,19 +33257,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33497,7 +33497,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
@@ -33506,13 +33506,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>233.9389431948335</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>640.7275049411307</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33740,7 +33740,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33752,13 +33752,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>364.3208035245835</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33980,16 +33980,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34208,7 +34208,7 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34705,10 +34705,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>50.48273419507654</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>48.44302776295223</v>
@@ -34778,22 +34778,22 @@
         <v>3.930118828988642</v>
       </c>
       <c r="K3" t="n">
+        <v>44.51290893396359</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>50.48273419507654</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>44.51290893396359</v>
       </c>
       <c r="Q3" t="n">
         <v>50.48273419507654</v>
@@ -34936,10 +34936,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>46.40980178192011</v>
-      </c>
-      <c r="L5" t="n">
-        <v>53.79631798062264</v>
       </c>
       <c r="M5" t="n">
         <v>53.79631798062264</v>
@@ -34951,7 +34951,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="Q5" t="n">
         <v>5.212927593424824</v>
@@ -35018,22 +35018,22 @@
         <v>53.79631798062264</v>
       </c>
       <c r="L6" t="n">
-        <v>45.25240582282281</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>45.25240582282282</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="P6" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,25 +35173,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>170.133189265314</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7906813097141594</v>
+        <v>0.7906813097144152</v>
       </c>
       <c r="M8" t="n">
-        <v>32.86911605665298</v>
+        <v>162.4684397024557</v>
       </c>
       <c r="N8" t="n">
-        <v>170.1331892653139</v>
+        <v>170.133189265314</v>
       </c>
       <c r="O8" t="n">
-        <v>170.1331892653139</v>
+        <v>170.133189265314</v>
       </c>
       <c r="P8" t="n">
-        <v>147.8455755692583</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>151.8869373418584</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>170.1331892653139</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>170.1331892653139</v>
+        <v>170.133189265314</v>
       </c>
       <c r="M9" t="n">
-        <v>61.08666120507488</v>
+        <v>86.0014908704469</v>
       </c>
       <c r="N9" t="n">
-        <v>77.25763014172298</v>
+        <v>77.25763014172321</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23140050205765</v>
+        <v>170.133189265314</v>
       </c>
       <c r="P9" t="n">
-        <v>146.8166184286282</v>
+        <v>170.133189265314</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>55.85234555490375</v>
+        <v>55.85234555490383</v>
       </c>
       <c r="L10" t="n">
-        <v>127.5590807004871</v>
+        <v>127.5590807004872</v>
       </c>
       <c r="M10" t="n">
-        <v>144.987229227639</v>
+        <v>144.9872292276391</v>
       </c>
       <c r="N10" t="n">
-        <v>147.0292685162225</v>
+        <v>147.0292685162226</v>
       </c>
       <c r="O10" t="n">
-        <v>119.6272505741704</v>
+        <v>119.6272505741705</v>
       </c>
       <c r="P10" t="n">
-        <v>78.60351423468886</v>
+        <v>78.60351423468894</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35428,10 +35428,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>57.74979223202591</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>8.181160134949948</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,16 +35972,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36060,7 +36060,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998995</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36133,7 +36133,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36194,28 +36194,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36440,10 +36440,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>362.64726091244</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36455,10 +36455,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,13 +36592,13 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>176.2645232599139</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36692,7 +36692,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36838,7 +36838,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -37072,7 +37072,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37087,7 +37087,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37154,13 +37154,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>91.80490927281522</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>498.1312604966863</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37315,7 +37315,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37388,7 +37388,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37400,13 +37400,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>224.339029438562</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,16 +37628,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367767</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394658</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
